--- a/AMT HALL EFFECT/04_Project Outputs/Rev 2/05_BOM/LMAT_AMT_V2.xlsx
+++ b/AMT HALL EFFECT/04_Project Outputs/Rev 2/05_BOM/LMAT_AMT_V2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New Volume\Embdes_Final\LUMAX\AMT_Hall_Effect\AMT_20 pin microcontroller\Design\LMAT_AMT_V2 (24-07-2019 17-15-55)\Project Outputs for LMAT_AMT_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New Volume\Embdes_Final\LUMAX\AMT_Hall_Effect\AMT_20 pin microcontroller\Design\Project Outputs for LMAT_AMT_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="LMAT_AMT_V2" sheetId="1" r:id="rId1"/>
@@ -278,16 +278,16 @@
     <t>J1</t>
   </si>
   <si>
-    <t>CONN HEADER SMD R/A 8POS 1.27MM</t>
-  </si>
-  <si>
-    <t>Samtec Inc.</t>
-  </si>
-  <si>
-    <t>FTSH-104-02-L-DH</t>
-  </si>
-  <si>
-    <t>SAM11248-ND</t>
+    <t>J-LINK 6-PIN NEEDLE ADAPTER</t>
+  </si>
+  <si>
+    <t>Segger Microcontroller Systems</t>
+  </si>
+  <si>
+    <t>8.06.16 J-LINK 6-PIN NEEDLE ADAPTER</t>
+  </si>
+  <si>
+    <t>899-1051-ND</t>
   </si>
   <si>
     <t>J3</t>
@@ -613,15 +613,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,19 +906,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -948,7 +950,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -974,7 +976,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1000,7 +1002,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1026,7 +1028,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1052,7 +1054,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1078,7 +1080,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1104,7 +1106,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1130,7 +1132,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1156,7 +1158,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1182,7 +1184,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1208,7 +1210,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1234,7 +1236,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1260,7 +1262,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1286,7 +1288,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1312,7 +1314,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1338,7 +1340,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1364,7 +1366,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1390,7 +1392,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1416,7 +1418,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1442,7 +1444,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1468,7 +1470,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1494,7 +1496,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1520,7 +1522,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1546,7 +1548,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1572,7 +1574,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1598,7 +1600,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1624,7 +1626,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1650,7 +1652,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1676,7 +1678,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1702,55 +1704,34 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
@@ -1759,24 +1740,24 @@
         <v>13</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>53</v>
+      <c r="A37" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
@@ -1785,24 +1766,24 @@
         <v>13</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H37" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>78</v>
+      <c r="A38" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
@@ -1811,24 +1792,24 @@
         <v>13</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="H38" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>151</v>
+      <c r="A39" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
@@ -1837,24 +1818,24 @@
         <v>13</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="H39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>83</v>
+      <c r="A40" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
@@ -1863,15 +1844,41 @@
         <v>13</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H41" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C32:E33"/>
+    <mergeCell ref="C32:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AMT HALL EFFECT/04_Project Outputs/Rev 2/05_BOM/LMAT_AMT_V2.xlsx
+++ b/AMT HALL EFFECT/04_Project Outputs/Rev 2/05_BOM/LMAT_AMT_V2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New Volume\Embdes_Final\LUMAX\AMT_Hall_Effect\AMT_20 pin microcontroller\Design\Project Outputs for LMAT_AMT_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New Volume\Embdes_Final\LUMAX\AMT_Hall_Effect\Project Outputs for LMAT_AMT_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,129 +50,330 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>RES SMD 0.0OHM JUMPER 1/10W 0603</t>
+  </si>
+  <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>ERJ-3GEY0R00V</t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>P0.0GCT-ND</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>CAP CER 0.022UF 50V 10% X7R 0603</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>CGA3E2X7R1H223K080AA</t>
+  </si>
+  <si>
+    <t>0.022uF</t>
+  </si>
+  <si>
+    <t>445-5663-1-ND</t>
+  </si>
+  <si>
+    <t>C4, C5, C7, C8, C9, C10</t>
+  </si>
+  <si>
+    <t>CAP CER 0.047UF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>CGA3E2X7R1H473K080AA</t>
+  </si>
+  <si>
+    <t>0.047µF</t>
+  </si>
+  <si>
+    <t>445-5664-1-ND</t>
+  </si>
+  <si>
+    <t>C6, C12, C25, C26</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V 10% X7R 0603</t>
+  </si>
+  <si>
+    <t>CGA3E2X7R1H104K080AA</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>445-5666-1-ND</t>
+  </si>
+  <si>
+    <t>C14, C16</t>
+  </si>
+  <si>
+    <t>CAP CER 0.22UF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>Murata Electronics North America</t>
+  </si>
+  <si>
+    <t>GCJ188R71H224KA01D</t>
+  </si>
+  <si>
+    <t>0.22µF</t>
+  </si>
+  <si>
+    <t>490-14410-1-ND</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>RES SMD 1M OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>RCA06031M00JNEA</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>541-2216-1-ND</t>
+  </si>
+  <si>
+    <t>C2, C3</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 25V X7R 0603</t>
+  </si>
+  <si>
+    <t>CGA3E1X7R1E105K080AE</t>
+  </si>
+  <si>
+    <t>1µF</t>
+  </si>
+  <si>
+    <t>445-173628-1-ND</t>
+  </si>
+  <si>
+    <t>R3, R4, R9, R10, R13, R14</t>
+  </si>
+  <si>
+    <t>RES SMD 1.2K OHM 5% 1/2W 0805</t>
+  </si>
+  <si>
+    <t>ERJ-P06J122V</t>
+  </si>
+  <si>
+    <t>1.2K</t>
+  </si>
+  <si>
+    <t>P1.2KADCT-ND</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>RES SMD 4.7K OHM 1% 1/10W 0402</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF4701X</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>P4.70KLCT-ND</t>
+  </si>
+  <si>
+    <t>R27, R28</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 5% 1/10W 0402</t>
+  </si>
+  <si>
+    <t>ERJ-2GEJ103X</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>P10KJCT-ND</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 50V X7R 1210</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>UMJ325KB7106KMHP</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>587-6026-1-ND</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>RES SMD 22K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF2202V</t>
+  </si>
+  <si>
+    <t>22K</t>
+  </si>
+  <si>
+    <t>P22.0KHCT-ND</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>RES SMD 47K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>AT0603FRE0747KL</t>
+  </si>
+  <si>
+    <t>47K</t>
+  </si>
+  <si>
+    <t>YAG2129CT-ND</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>CAP CER 47UF 16V X6S 1210</t>
+  </si>
+  <si>
+    <t>GRT32EC81C476KE13L</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>490-12494-1-ND</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>FIXED IND 47UH 700MA 422.5 MOHM</t>
+  </si>
+  <si>
+    <t>NRS5030T470MMGJV</t>
+  </si>
+  <si>
+    <t>47UH</t>
+  </si>
+  <si>
+    <t>587-3604-1-ND</t>
+  </si>
+  <si>
+    <t>R1, R2, R7, R8, R11, R12</t>
+  </si>
+  <si>
+    <t>RES SMD 100 OHM 1% 1/2W 0805</t>
+  </si>
+  <si>
+    <t>ERJ-P06F1000V</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>P16057CT-ND</t>
+  </si>
+  <si>
+    <t>R17, R18, R23, R24</t>
+  </si>
+  <si>
+    <t>RES SMD 105 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1050V</t>
+  </si>
+  <si>
+    <t>105 Ohms</t>
+  </si>
+  <si>
+    <t>P105HCT-ND</t>
+  </si>
+  <si>
+    <t>R19, R20, R25, R26</t>
+  </si>
+  <si>
+    <t>RES SMD 210 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF2100V</t>
+  </si>
+  <si>
+    <t>210 Ohms</t>
+  </si>
+  <si>
+    <t>P210HCT-ND</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J-LINK 6-PIN NEEDLE ADAPTER</t>
+  </si>
+  <si>
+    <t>Segger Microcontroller Systems</t>
+  </si>
+  <si>
+    <t>8.06.16 J-LINK 6-PIN NEEDLE ADAPTER</t>
+  </si>
+  <si>
+    <t>899-1051-ND</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>FERRITE BEAD 600 OHM 0603 1LN</t>
+  </si>
+  <si>
+    <t>BLM18KG601SH1D</t>
+  </si>
+  <si>
+    <t>490-13259-1-ND</t>
+  </si>
+  <si>
     <t>C1, C15, C18</t>
   </si>
   <si>
-    <t>CAP CER 0.1UF 50V 10% X7R 0603</t>
-  </si>
-  <si>
-    <t>TDK Corporation</t>
-  </si>
-  <si>
-    <t>CGA3E2X7R1H104K080AA</t>
-  </si>
-  <si>
     <t>DNP</t>
   </si>
   <si>
-    <t>Digi-Key</t>
-  </si>
-  <si>
-    <t>445-5666-1-ND</t>
-  </si>
-  <si>
-    <t>C2, C3</t>
-  </si>
-  <si>
-    <t>CAP CER 1UF 25V X7R 0603</t>
-  </si>
-  <si>
-    <t>CGA3E1X7R1E105K080AE</t>
-  </si>
-  <si>
-    <t>1µF</t>
-  </si>
-  <si>
-    <t>445-173628-1-ND</t>
-  </si>
-  <si>
-    <t>C4, C5, C7, C8, C9, C10</t>
-  </si>
-  <si>
-    <t>CAP CER 0.047UF 50V X7R 0603</t>
-  </si>
-  <si>
-    <t>CGA3E2X7R1H473K080AA</t>
-  </si>
-  <si>
-    <t>0.047µF</t>
-  </si>
-  <si>
-    <t>445-5664-1-ND</t>
-  </si>
-  <si>
-    <t>C6, C12, C25, C26</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>CAP CER 10UF 50V X7R 1210</t>
-  </si>
-  <si>
-    <t>Taiyo Yuden</t>
-  </si>
-  <si>
-    <t>UMJ325KB7106KMHP</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>587-6026-1-ND</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>CAP CER 0.022UF 50V 10% X7R 0603</t>
-  </si>
-  <si>
-    <t>CGA3E2X7R1H223K080AA</t>
-  </si>
-  <si>
-    <t>0.022uF</t>
-  </si>
-  <si>
-    <t>445-5663-1-ND</t>
-  </si>
-  <si>
-    <t>C14, C16</t>
-  </si>
-  <si>
-    <t>CAP CER 0.22UF 50V X7R 0603</t>
-  </si>
-  <si>
-    <t>Murata Electronics North America</t>
-  </si>
-  <si>
-    <t>GCJ188R71H224KA01D</t>
-  </si>
-  <si>
-    <t>0.22µF</t>
-  </si>
-  <si>
-    <t>490-14410-1-ND</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>CAP CER 47UF 16V X6S 1210</t>
-  </si>
-  <si>
-    <t>GRT32EC81C476KE13L</t>
-  </si>
-  <si>
-    <t>47uF</t>
-  </si>
-  <si>
-    <t>490-12494-1-ND</t>
-  </si>
-  <si>
     <t>C20, C21, C22, C23</t>
   </si>
   <si>
@@ -188,310 +389,139 @@
     <t>C24</t>
   </si>
   <si>
+    <t>D12, D13, D14, D15</t>
+  </si>
+  <si>
+    <t>TVS DIODE 8V 20V 2X2DFN</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>SZESD7410N2T5G</t>
+  </si>
+  <si>
+    <t>SZESD7410N2T5GOSCT-ND</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>CONN HEADER R/A 6POS 2.54MM</t>
+  </si>
+  <si>
+    <t>Harwin Inc.</t>
+  </si>
+  <si>
+    <t>M20-9950345</t>
+  </si>
+  <si>
+    <t>952-2092-ND</t>
+  </si>
+  <si>
+    <t>U9, U10</t>
+  </si>
+  <si>
+    <t>MOSFET 2P-CH 20V 0.55A SOT666</t>
+  </si>
+  <si>
+    <t>Nexperia USA Inc.</t>
+  </si>
+  <si>
+    <t>PMDT670UPE,115</t>
+  </si>
+  <si>
+    <t>1727-1334-1-ND</t>
+  </si>
+  <si>
+    <t>D2, D3, D8, D9</t>
+  </si>
+  <si>
+    <t>Diode Schottky 30V 100mA Surface Mount EMD2</t>
+  </si>
+  <si>
+    <t>Rohm Semiconductor</t>
+  </si>
+  <si>
+    <t>RB501SM-30FHT2R</t>
+  </si>
+  <si>
+    <t>RB501SM-30FHT2RCT-ND</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>DIODE GEN PURP 1KV 1A DO214AC</t>
+  </si>
+  <si>
+    <t>Vishay Semiconductor Diodes Division</t>
+  </si>
+  <si>
+    <t>S1MHE3_A/I</t>
+  </si>
+  <si>
+    <t>S1MHE3_A/IGICT-ND</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>TVS DIODE 23.1V 48.3V SMB</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>SM6T27CAY</t>
+  </si>
+  <si>
+    <t>497-10798-1-ND</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
     <t>DIODE SCHOTTKY 40V 1A DO-219AB</t>
   </si>
   <si>
-    <t>Vishay Semiconductor Diodes Division</t>
-  </si>
-  <si>
     <t>SS1FL4HM3/H</t>
   </si>
   <si>
     <t>SS1FL4HM3/HGICT-ND</t>
   </si>
   <si>
-    <t>D2, D3, D8, D9</t>
-  </si>
-  <si>
-    <t>Diode Schottky 30V 100mA Surface Mount EMD2</t>
-  </si>
-  <si>
-    <t>Rohm Semiconductor</t>
-  </si>
-  <si>
-    <t>RB501SM-30FHT2R</t>
-  </si>
-  <si>
-    <t>RB501SM-30FHT2RCT-ND</t>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>IC MCU 8BIT 8KB FLASH 20TSSOP</t>
+  </si>
+  <si>
+    <t>STM8AF6223PCU</t>
+  </si>
+  <si>
+    <t>497-17896-ND</t>
   </si>
   <si>
     <t>D4, D5, D10, D11</t>
   </si>
   <si>
-    <t>TVS DIODE 8V 20V 2X2DFN</t>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>SZESD7410N2T5G</t>
-  </si>
-  <si>
-    <t>SZESD7410N2T5GOSCT-ND</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>DIODE GEN PURP 1KV 1A DO214AC</t>
-  </si>
-  <si>
-    <t>S1MHE3_A/I</t>
-  </si>
-  <si>
-    <t>S1MHE3_A/IGICT-ND</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>TVS DIODE 23.1V 48.3V SMB</t>
-  </si>
-  <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
-    <t>SM6T27CAY</t>
-  </si>
-  <si>
-    <t>497-10798-1-ND</t>
-  </si>
-  <si>
-    <t>D12, D13, D14, D15</t>
-  </si>
-  <si>
-    <t>FB1</t>
-  </si>
-  <si>
-    <t>FERRITE BEAD 600 OHM 0603 1LN</t>
-  </si>
-  <si>
-    <t>BLM18KG601SH1D</t>
-  </si>
-  <si>
-    <t>490-13259-1-ND</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>J-LINK 6-PIN NEEDLE ADAPTER</t>
-  </si>
-  <si>
-    <t>Segger Microcontroller Systems</t>
-  </si>
-  <si>
-    <t>8.06.16 J-LINK 6-PIN NEEDLE ADAPTER</t>
-  </si>
-  <si>
-    <t>899-1051-ND</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>CONN HEADER R/A 6POS 2.54MM</t>
-  </si>
-  <si>
-    <t>Harwin Inc.</t>
-  </si>
-  <si>
-    <t>M20-9950345</t>
-  </si>
-  <si>
-    <t>952-2092-ND</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>FIXED IND 47UH 700MA 422.5 MOHM</t>
-  </si>
-  <si>
-    <t>NRS5030T470MMGJV</t>
-  </si>
-  <si>
-    <t>47UH</t>
-  </si>
-  <si>
-    <t>587-3604-1-ND</t>
-  </si>
-  <si>
-    <t>R1, R2, R7, R8, R11, R12</t>
-  </si>
-  <si>
-    <t>RES SMD 100 OHM 1% 1/2W 0805</t>
-  </si>
-  <si>
-    <t>Panasonic Electronic Components</t>
-  </si>
-  <si>
-    <t>ERJ-P06F1000V</t>
-  </si>
-  <si>
-    <t>100R</t>
-  </si>
-  <si>
-    <t>P16057CT-ND</t>
-  </si>
-  <si>
-    <t>R3, R4, R9, R10, R13, R14</t>
-  </si>
-  <si>
-    <t>RES SMD 1.2K OHM 5% 1/2W 0805</t>
-  </si>
-  <si>
-    <t>ERJ-P06J122V</t>
-  </si>
-  <si>
-    <t>1.2K</t>
-  </si>
-  <si>
-    <t>P1.2KADCT-ND</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>RES SMD 47K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>AT0603FRE0747KL</t>
-  </si>
-  <si>
-    <t>47K</t>
-  </si>
-  <si>
-    <t>YAG2129CT-ND</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>RES SMD 0.0OHM JUMPER 1/10W 0603</t>
-  </si>
-  <si>
-    <t>ERJ-3GEY0R00V</t>
-  </si>
-  <si>
-    <t>0R</t>
-  </si>
-  <si>
-    <t>P0.0GCT-ND</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>RES SMD 1M OHM 5% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>Vishay Dale</t>
-  </si>
-  <si>
-    <t>RCA06031M00JNEA</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>541-2216-1-ND</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>RES SMD 22K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF2202V</t>
-  </si>
-  <si>
-    <t>22K</t>
-  </si>
-  <si>
-    <t>P22.0KHCT-ND</t>
-  </si>
-  <si>
-    <t>R17, R18, R23, R24</t>
-  </si>
-  <si>
-    <t>RES SMD 105 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1050V</t>
-  </si>
-  <si>
-    <t>105 Ohms</t>
-  </si>
-  <si>
-    <t>P105HCT-ND</t>
-  </si>
-  <si>
-    <t>R19, R20, R25, R26</t>
-  </si>
-  <si>
-    <t>RES SMD 210 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF2100V</t>
-  </si>
-  <si>
-    <t>210 Ohms</t>
-  </si>
-  <si>
-    <t>P210HCT-ND</t>
-  </si>
-  <si>
-    <t>R27, R28</t>
-  </si>
-  <si>
-    <t>RES SMD 10K OHM 5% 1/10W 0402</t>
-  </si>
-  <si>
-    <t>ERJ-2GEJ103X</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>P10KJCT-ND</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>RES SMD 4.7K OHM 1% 1/10W 0402</t>
-  </si>
-  <si>
-    <t>ERJ-2RKF4701X</t>
-  </si>
-  <si>
-    <t>4.7K</t>
-  </si>
-  <si>
-    <t>P4.70KLCT-ND</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>IC MCU 8BIT 8KB FLASH 20TSSOP</t>
-  </si>
-  <si>
-    <t>STM8AF6223PCU</t>
-  </si>
-  <si>
-    <t>497-17896-ND</t>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>IC REG BUCK 5V 1.8A 8DSO</t>
+  </si>
+  <si>
+    <t>Infineon Technologies</t>
+  </si>
+  <si>
+    <t>TLE8366EV50XUMA1</t>
+  </si>
+  <si>
+    <t>TLE8366EV50XUMA1CT-ND</t>
   </si>
   <si>
     <t>U2, U3, U4, U5, U6, U7</t>
@@ -500,40 +530,10 @@
     <t>MAGNETIC SWITCH UNIPOLAR SOT23-3</t>
   </si>
   <si>
-    <t>Infineon Technologies</t>
-  </si>
-  <si>
     <t>TLE49641MXTSA1</t>
   </si>
   <si>
     <t>TLE49641MXTSA1CT-ND</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>IC REG BUCK 5V 1.8A 8DSO</t>
-  </si>
-  <si>
-    <t>TLE8366EV50XUMA1</t>
-  </si>
-  <si>
-    <t>TLE8366EV50XUMA1CT-ND</t>
-  </si>
-  <si>
-    <t>U9, U10</t>
-  </si>
-  <si>
-    <t>MOSFET 2P-CH 20V 0.55A SOT666</t>
-  </si>
-  <si>
-    <t>Nexperia USA Inc.</t>
-  </si>
-  <si>
-    <t>PMDT670UPE,115</t>
-  </si>
-  <si>
-    <t>1727-1334-1-ND</t>
   </si>
   <si>
     <t>DNP COMPONENTS</t>
@@ -624,7 +624,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,13 +908,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -951,285 +951,285 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H10" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H11" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1237,25 +1237,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1263,25 +1263,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -1289,25 +1289,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -1315,25 +1315,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -1341,25 +1341,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H17" s="3">
         <v>6</v>
@@ -1367,77 +1367,77 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -1445,25 +1445,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -1471,25 +1471,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -1497,51 +1497,51 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H24" s="3">
         <v>4</v>
@@ -1549,51 +1549,51 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>153</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>154</v>
@@ -1633,85 +1633,106 @@
         <v>157</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="H28" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="H29" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="5" t="s">
+      <c r="H31" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
@@ -1720,157 +1741,131 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="3">
-        <v>3</v>
-      </c>
-    </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="H38" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="H39" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H40" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -1878,7 +1873,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C32:E34"/>
+    <mergeCell ref="C33:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AMT HALL EFFECT/04_Project Outputs/Rev 2/05_BOM/LMAT_AMT_V2.xlsx
+++ b/AMT HALL EFFECT/04_Project Outputs/Rev 2/05_BOM/LMAT_AMT_V2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New Volume\Embdes_Final\LUMAX\AMT_Hall_Effect\Project Outputs for LMAT_AMT_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User-1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="LMAT_AMT_V2" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -623,8 +628,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,7 +665,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -672,7 +677,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -689,9 +694,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -719,14 +724,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -754,6 +776,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -908,18 +947,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1419,25 +1459,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -1445,25 +1485,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -1471,103 +1511,103 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -1575,25 +1615,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -1601,25 +1641,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -1627,132 +1667,130 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="H28" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="H29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" s="3">
         <v>6</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="5" t="s">
-        <v>170</v>
-      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>115</v>
@@ -1761,24 +1799,24 @@
         <v>13</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>115</v>
@@ -1787,24 +1825,24 @@
         <v>13</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="H38" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>115</v>
@@ -1813,24 +1851,24 @@
         <v>13</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="H39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>115</v>
@@ -1839,24 +1877,24 @@
         <v>13</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="H40" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>115</v>
@@ -1865,7 +1903,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -1873,7 +1911,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="C32:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
